--- a/biology/Botanique/Andropogon/Andropogon.xlsx
+++ b/biology/Botanique/Andropogon/Andropogon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Andropogon (communément appelé aux États-Unis broomsedge, c'est-à-dire « paille à balai ») est un genre de plantes herbacées de la famille des Poaceae. Elle peut atteindre une hauteur de 1,50 m et l'on tire de sa tige un colorant ocre[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andropogon (communément appelé aux États-Unis broomsedge, c'est-à-dire « paille à balai ») est un genre de plantes herbacées de la famille des Poaceae. Elle peut atteindre une hauteur de 1,50 m et l'on tire de sa tige un colorant ocre.
 Plusieurs de ses espèces sont en danger, comme Andropogon benthamianus, Andropogon bentii, Andropogon lanuginosus et Andropogon scabriglumis.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Andropogon abyssinicus R.Br. ex Fresen.
 Andropogon amboinicus (L.) Merr.
@@ -562,7 +576,7 @@
 Andropogon ternatus (Spreng.) Nees
 Andropogon tracyi Nash
 Andropogon virgatus Desv. ex Ham.
-Andropogon virginicus L. (envahissant en Nouvelle-Calédonie[2])</t>
+Andropogon virginicus L. (envahissant en Nouvelle-Calédonie)</t>
         </is>
       </c>
     </row>
